--- a/excel_params/2.5_V2av.xlsx
+++ b/excel_params/2.5_V2av.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\大四下\she_shishkebab\excel_params\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\大四下\毕设\CODE\dp_crystmorph\regionIII_double_peak\region_III_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E33EDD5-CD6A-47BD-88C3-2B4C66765782}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9926D79-12EA-4134-AD22-B73B769B5C4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="960" windowWidth="19785" windowHeight="7590" xr2:uid="{3A27E9AD-ED0D-4B5D-8C90-7E5DA1CBBB1D}"/>
+    <workbookView xWindow="0" yWindow="1875" windowWidth="19785" windowHeight="7590" xr2:uid="{37A79C31-11E5-42BB-8F91-53FF296B5A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,11 +409,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA2BCDE-B2C6-4C12-96A2-00729F716DA6}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0DB7156-EB31-4EB1-8112-F3C7FD662C37}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -443,35 +443,7 @@
         <v>1869958505.3171995</v>
       </c>
       <c r="D2">
-        <v>0.14408461007775067</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>11108238849.057676</v>
-      </c>
-      <c r="C3">
-        <v>1869958505.3171995</v>
-      </c>
-      <c r="D3">
-        <v>0.14408461007775067</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>11108238849.057676</v>
-      </c>
-      <c r="C4">
-        <v>1869958505.3171995</v>
-      </c>
-      <c r="D4">
-        <v>0.14408461007775067</v>
+        <v>0.76646440279087957</v>
       </c>
     </row>
   </sheetData>
